--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="281">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T16:21:14+00:00</t>
+    <t>2025-01-11T17:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -744,6 +744,29 @@
   </si>
   <si>
     <t>Medication.ingredient.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.extension:IsVehicle</t>
+  </si>
+  <si>
+    <t>IsVehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-is-vehicle}
+</t>
+  </si>
+  <si>
+    <t>Medication component which is the vehicle of the compound Medication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Medication.ingredient.modifierExtension</t>
@@ -1185,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1194,7 +1217,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.25" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.41796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.25" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3756,7 +3779,7 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3778,14 +3801,12 @@
         <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>21</v>
@@ -3822,16 +3843,14 @@
         <v>21</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>21</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>175</v>
@@ -3852,7 +3871,7 @@
         <v>21</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>21</v>
@@ -3863,46 +3882,44 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="D24" t="s" s="2">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>21</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>21</v>
       </c>
@@ -3950,7 +3967,7 @@
         <v>21</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3959,7 +3976,7 @@
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>138</v>
@@ -3968,7 +3985,7 @@
         <v>21</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>21</v>
@@ -3979,43 +3996,45 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>21</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>238</v>
+        <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O25" t="s" s="2">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>21</v>
@@ -4064,31 +4083,31 @@
         <v>21</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>242</v>
+        <v>130</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>243</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -4104,7 +4123,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>87</v>
@@ -4181,7 +4200,7 @@
         <v>244</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>87</v>
@@ -4193,7 +4212,7 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>249</v>
@@ -4202,15 +4221,15 @@
         <v>21</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>21</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4221,7 +4240,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>21</v>
@@ -4233,17 +4252,17 @@
         <v>21</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>21</v>
@@ -4292,7 +4311,7 @@
         <v>21</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4307,16 +4326,16 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>255</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>256</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -4347,16 +4366,18 @@
         <v>21</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>21</v>
       </c>
@@ -4419,24 +4440,24 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>205</v>
+        <v>262</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>21</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4447,7 +4468,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>21</v>
@@ -4459,13 +4480,13 @@
         <v>21</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4516,7 +4537,7 @@
         <v>21</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4528,13 +4549,13 @@
         <v>21</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>169</v>
+        <v>267</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>21</v>
@@ -4545,21 +4566,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>21</v>
@@ -4571,17 +4592,15 @@
         <v>21</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>21</v>
@@ -4630,19 +4649,19 @@
         <v>21</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>21</v>
@@ -4659,14 +4678,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>233</v>
+        <v>132</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4679,26 +4698,24 @@
         <v>21</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>234</v>
+        <v>134</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="O31" t="s" s="2">
-        <v>142</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>21</v>
       </c>
@@ -4746,7 +4763,7 @@
         <v>21</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4764,7 +4781,7 @@
         <v>21</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>21</v>
@@ -4775,42 +4792,46 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>21</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>21</v>
       </c>
@@ -4858,39 +4879,39 @@
         <v>21</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>267</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4913,13 +4934,13 @@
         <v>21</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>269</v>
+        <v>165</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4970,7 +4991,7 @@
         <v>21</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -4988,13 +5009,125 @@
         <v>205</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>272</v>
+        <v>149</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:10:04+00:00</t>
+    <t>2025-01-11T17:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:18:32+00:00</t>
+    <t>2025-01-11T17:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:45:34+00:00</t>
+    <t>2025-01-12T18:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-12T18:13:34+00:00</t>
+    <t>2025-01-20T08:50:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:50:22+00:00</t>
+    <t>2025-01-20T08:59:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:59:15+00:00</t>
+    <t>2025-01-20T09:27:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="281">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>French compound Medication</t>
+    <t>French compound Medication 2</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:27:26+00:00</t>
+    <t>2025-01-20T09:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -685,10 +685,10 @@
     <t>When Medication is referenced from MedicationRequest, this is the ordered form.  When Medication is referenced within MedicationDispense, this is the dispensed form.  When Medication is referenced within MedicationAdministration, this is administered form.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/fhir/fr/medication/ValueSet/fr-mp-dose-form</t>
+    <t>A coded concept defining the form of a medication.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-form-codes</t>
   </si>
   <si>
     <t>coding.code =  //element(*,DrugCodedType)/FormCode@@ -1242,7 +1242,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="55.39453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.41796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.0390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -3381,9 +3381,11 @@
         <v>21</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
         <v>214</v>
       </c>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:49:22+00:00</t>
+    <t>2025-01-20T10:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T10:56:59+00:00</t>
+    <t>2025-01-20T12:54:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T12:54:51+00:00</t>
+    <t>2025-01-20T14:47:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T14:47:39+00:00</t>
+    <t>2025-02-04T14:42:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T14:42:57+00:00</t>
+    <t>2025-02-04T16:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:03:40+00:00</t>
+    <t>2025-02-04T17:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T17:43:23+00:00</t>
+    <t>2025-02-05T08:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T08:50:29+00:00</t>
+    <t>2025-02-05T09:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:01:25+00:00</t>
+    <t>2025-02-05T09:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:11:38+00:00</t>
+    <t>2025-02-13T15:32:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T15:32:59+00:00</t>
+    <t>2025-02-16T15:11:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-16T15:11:19+00:00</t>
+    <t>2025-02-19T13:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T13:44:58+00:00</t>
+    <t>2025-02-19T14:27:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:27:03+00:00</t>
+    <t>2025-02-19T14:43:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:43:26+00:00</t>
+    <t>2025-02-21T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T12:43:39+00:00</t>
+    <t>2025-02-21T14:39:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T14:39:11+00:00</t>
+    <t>2025-02-21T15:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:02:48+00:00</t>
+    <t>2025-02-21T15:30:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:30:48+00:00</t>
+    <t>2025-02-24T10:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-compound2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T10:42:42+00:00</t>
+    <t>2025-02-24T15:51:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
